--- a/Sources/math_11.12.2024.xlsx
+++ b/Sources/math_11.12.2024.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
-  <workbookPr defaultThemeVersion="202300"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://admortgage-my.sharepoint.com/personal/samat_dzhumagaliev_admortgage_com/Documents/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lazti\Desktop\hackathon_2025_autumn\Sources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A90BE83F-BBF9-457D-9A2C-E2D92201351B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3720" yWindow="2355" windowWidth="21600" windowHeight="11295" xr2:uid="{5FF95AA1-A2B3-4728-B0DD-4E95F0E5C80D}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9072"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -20,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="197">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="198">
   <si>
     <t>ученик</t>
   </si>
@@ -611,13 +610,16 @@
   </si>
   <si>
     <t>Наумов</t>
+  </si>
+  <si>
+    <t>ДАА</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -1005,17 +1007,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{27D61AF4-28B0-41CE-9BA9-FA0DB9E9312D}">
-  <dimension ref="A1:B201"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B202"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N1" sqref="N1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col min="1" max="1" width="9.140625" customWidth="1"/>
+    <col min="1" max="1" width="9.09765625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" ht="15.6">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1023,7 +1027,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" ht="15.6">
       <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
@@ -1031,7 +1035,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" ht="15.6">
       <c r="A3" s="2" t="s">
         <v>3</v>
       </c>
@@ -1039,7 +1043,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" ht="15.6">
       <c r="A4" s="2" t="s">
         <v>4</v>
       </c>
@@ -1047,7 +1051,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" ht="15.6">
       <c r="A5" s="2" t="s">
         <v>5</v>
       </c>
@@ -1055,7 +1059,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" ht="15.6">
       <c r="A6" s="2" t="s">
         <v>6</v>
       </c>
@@ -1063,1563 +1067,1571 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" ht="15.6">
       <c r="A7" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="B7" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="15.6">
+      <c r="A8" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="2" t="s">
+      <c r="B8" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="15.6">
+      <c r="A9" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="2">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A9" s="2" t="s">
+      <c r="B9" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" ht="15.6">
+      <c r="A10" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B9" s="2">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A10" s="2" t="s">
+      <c r="B10" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" ht="15.6">
+      <c r="A11" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B10" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A11" s="2" t="s">
+      <c r="B11" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" ht="15.6">
+      <c r="A12" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B11" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A12" s="2" t="s">
+      <c r="B12" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" ht="15.6">
+      <c r="A13" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B12" s="2">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A13" s="2" t="s">
+      <c r="B13" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" ht="15.6">
+      <c r="A14" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B13" s="2">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A14" s="2" t="s">
+      <c r="B14" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" ht="15.6">
+      <c r="A15" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B14" s="2">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A15" s="2" t="s">
+      <c r="B15" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" ht="15.6">
+      <c r="A16" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B15" s="2">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A16" s="2" t="s">
+      <c r="B16" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" ht="15.6">
+      <c r="A17" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B16" s="2">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A17" s="2" t="s">
+      <c r="B17" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" ht="15.6">
+      <c r="A18" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B17" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A18" s="2" t="s">
+      <c r="B18" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" ht="15.6">
+      <c r="A19" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="B18" s="2">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A19" s="2" t="s">
+      <c r="B19" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" ht="15.6">
+      <c r="A20" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="B19" s="2">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A20" s="2" t="s">
+      <c r="B20" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" ht="15.6">
+      <c r="A21" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="B20" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A21" s="2" t="s">
+      <c r="B21" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" ht="15.6">
+      <c r="A22" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B21" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A22" s="2" t="s">
+      <c r="B22" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" ht="15.6">
+      <c r="A23" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="B22" s="2">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A23" s="2" t="s">
+      <c r="B23" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" ht="15.6">
+      <c r="A24" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="B23" s="2">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A24" s="2" t="s">
+      <c r="B24" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" ht="15.6">
+      <c r="A25" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="B24" s="2">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A25" s="2" t="s">
+      <c r="B25" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" ht="15.6">
+      <c r="A26" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="B25" s="2">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A26" s="2" t="s">
+      <c r="B26" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" ht="15.6">
+      <c r="A27" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="B26" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A27" s="2" t="s">
+      <c r="B27" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" ht="15.6">
+      <c r="A28" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="B27" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A28" s="2" t="s">
+      <c r="B28" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" ht="15.6">
+      <c r="A29" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="B28" s="2">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A29" s="2" t="s">
+      <c r="B29" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" ht="15.6">
+      <c r="A30" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="B29" s="2">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A30" s="2" t="s">
+      <c r="B30" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" ht="15.6">
+      <c r="A31" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="B30" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A31" s="2" t="s">
+      <c r="B31" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" ht="15.6">
+      <c r="A32" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="B31" s="2">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A32" s="2" t="s">
+      <c r="B32" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" ht="15.6">
+      <c r="A33" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="B32" s="2">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A33" s="2" t="s">
+      <c r="B33" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" ht="15.6">
+      <c r="A34" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="B33" s="2">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A34" s="2" t="s">
+      <c r="B34" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" ht="15.6">
+      <c r="A35" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="B34" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A35" s="2" t="s">
+      <c r="B35" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" ht="15.6">
+      <c r="A36" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="B35" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A36" s="2" t="s">
+      <c r="B36" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" ht="15.6">
+      <c r="A37" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="B36" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A37" s="2" t="s">
+      <c r="B37" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" ht="15.6">
+      <c r="A38" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="B37" s="2">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A38" s="2" t="s">
+      <c r="B38" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" ht="15.6">
+      <c r="A39" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="B38" s="2">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A39" s="2" t="s">
+      <c r="B39" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" ht="15.6">
+      <c r="A40" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="B39" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A40" s="2" t="s">
+      <c r="B40" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" ht="15.6">
+      <c r="A41" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="B40" s="2">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A41" s="2" t="s">
+      <c r="B41" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" ht="15.6">
+      <c r="A42" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="B41" s="2">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A42" s="2" t="s">
+      <c r="B42" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" ht="15.6">
+      <c r="A43" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="B42" s="2">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A43" s="2" t="s">
+      <c r="B43" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" ht="15.6">
+      <c r="A44" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="B43" s="2">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A44" s="2" t="s">
+      <c r="B44" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" ht="15.6">
+      <c r="A45" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="B44" s="2">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A45" s="2" t="s">
+      <c r="B45" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" ht="15.6">
+      <c r="A46" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="B45" s="2">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A46" s="2" t="s">
+      <c r="B46" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" ht="15.6">
+      <c r="A47" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="B46" s="2">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A47" s="2" t="s">
+      <c r="B47" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" ht="15.6">
+      <c r="A48" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="B47" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A48" s="2" t="s">
+      <c r="B48" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" ht="15.6">
+      <c r="A49" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="B48" s="2">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A49" s="2" t="s">
+      <c r="B49" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" ht="15.6">
+      <c r="A50" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="B49" s="2">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A50" s="2" t="s">
+      <c r="B50" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" ht="15.6">
+      <c r="A51" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="B50" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A51" s="2" t="s">
+      <c r="B51" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" ht="15.6">
+      <c r="A52" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="B51" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A52" s="2" t="s">
+      <c r="B52" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" ht="15.6">
+      <c r="A53" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="B52" s="2">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="53" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A53" s="2" t="s">
+      <c r="B53" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" ht="15.6">
+      <c r="A54" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="B53" s="2">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A54" s="2" t="s">
+      <c r="B54" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" ht="15.6">
+      <c r="A55" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="B54" s="2">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A55" s="2" t="s">
+      <c r="B55" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" ht="15.6">
+      <c r="A56" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="B55" s="2">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A56" s="2" t="s">
+      <c r="B56" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" ht="15.6">
+      <c r="A57" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="B56" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A57" s="2" t="s">
+      <c r="B57" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" ht="15.6">
+      <c r="A58" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="B57" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="58" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A58" s="2" t="s">
+      <c r="B58" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" ht="15.6">
+      <c r="A59" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="B58" s="2">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="59" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A59" s="2" t="s">
+      <c r="B59" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" ht="15.6">
+      <c r="A60" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="B59" s="2">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="60" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A60" s="2" t="s">
+      <c r="B60" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" ht="15.6">
+      <c r="A61" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="B60" s="2">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="61" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A61" s="2" t="s">
+      <c r="B61" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" ht="15.6">
+      <c r="A62" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="B61" s="2">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="62" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A62" s="2" t="s">
+      <c r="B62" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" ht="15.6">
+      <c r="A63" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="B62" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="63" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A63" s="2" t="s">
+      <c r="B63" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" ht="15.6">
+      <c r="A64" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="B63" s="2">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="64" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A64" s="2" t="s">
+      <c r="B64" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" ht="15.6">
+      <c r="A65" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="B64" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="65" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A65" s="2" t="s">
+      <c r="B65" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" ht="15.6">
+      <c r="A66" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="B65" s="2">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="66" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A66" s="2" t="s">
+      <c r="B66" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" ht="15.6">
+      <c r="A67" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="B66" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="67" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A67" s="2" t="s">
-        <v>4</v>
-      </c>
       <c r="B67" s="2">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="68" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" ht="15.6">
       <c r="A68" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B68" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" ht="15.6">
+      <c r="A69" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="B68" s="2">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="69" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A69" s="2" t="s">
+      <c r="B69" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" ht="15.6">
+      <c r="A70" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="B69" s="2">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="70" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A70" s="2" t="s">
+      <c r="B70" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" ht="15.6">
+      <c r="A71" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="B70" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="71" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A71" s="2" t="s">
+      <c r="B71" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" ht="15.6">
+      <c r="A72" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="B71" s="2">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="72" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A72" s="2" t="s">
+      <c r="B72" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" ht="15.6">
+      <c r="A73" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="B72" s="2">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="73" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A73" s="2" t="s">
+      <c r="B73" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" ht="15.6">
+      <c r="A74" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="B73" s="2">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="74" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A74" s="2" t="s">
+      <c r="B74" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" ht="15.6">
+      <c r="A75" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B74" s="2">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="75" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A75" s="2" t="s">
+      <c r="B75" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" ht="15.6">
+      <c r="A76" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="B75" s="2">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="76" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A76" s="2" t="s">
+      <c r="B76" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" ht="15.6">
+      <c r="A77" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="B76" s="2">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="77" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A77" s="2" t="s">
+      <c r="B77" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" ht="15.6">
+      <c r="A78" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="B77" s="2">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="78" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A78" s="2" t="s">
+      <c r="B78" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" ht="15.6">
+      <c r="A79" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="B78" s="2">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="79" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A79" s="2" t="s">
+      <c r="B79" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" ht="15.6">
+      <c r="A80" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="B79" s="2">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="80" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A80" s="2" t="s">
+      <c r="B80" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" ht="15.6">
+      <c r="A81" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="B80" s="2">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="81" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A81" s="2" t="s">
+      <c r="B81" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" ht="15.6">
+      <c r="A82" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="B81" s="2">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="82" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A82" s="2" t="s">
+      <c r="B82" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" ht="15.6">
+      <c r="A83" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="B82" s="2">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="83" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A83" s="2" t="s">
+      <c r="B83" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" ht="15.6">
+      <c r="A84" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="B83" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="84" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A84" s="2" t="s">
+      <c r="B84" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" ht="15.6">
+      <c r="A85" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="B84" s="2">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="85" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A85" s="2" t="s">
+      <c r="B85" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" ht="15.6">
+      <c r="A86" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="B85" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="86" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A86" s="2" t="s">
+      <c r="B86" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" ht="15.6">
+      <c r="A87" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="B86" s="2">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="87" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A87" s="2" t="s">
+      <c r="B87" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" ht="15.6">
+      <c r="A88" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="B87" s="2">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="88" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A88" s="2" t="s">
+      <c r="B88" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" ht="15.6">
+      <c r="A89" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="B88" s="2">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="89" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A89" s="2" t="s">
+      <c r="B89" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" ht="15.6">
+      <c r="A90" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="B89" s="2">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="90" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A90" s="2" t="s">
+      <c r="B90" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" ht="15.6">
+      <c r="A91" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="B90" s="2">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="91" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A91" s="2" t="s">
+      <c r="B91" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" ht="15.6">
+      <c r="A92" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="B91" s="2">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="92" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A92" s="2" t="s">
+      <c r="B92" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" ht="15.6">
+      <c r="A93" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="B92" s="2">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="93" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A93" s="2" t="s">
+      <c r="B93" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" ht="15.6">
+      <c r="A94" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="B93" s="2">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="94" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A94" s="2" t="s">
+      <c r="B94" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" ht="15.6">
+      <c r="A95" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="B94" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="95" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A95" s="2" t="s">
+      <c r="B95" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" ht="15.6">
+      <c r="A96" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="B95" s="2">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="96" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A96" s="2" t="s">
+      <c r="B96" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" ht="15.6">
+      <c r="A97" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="B96" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="97" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A97" s="2" t="s">
+      <c r="B97" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" ht="15.6">
+      <c r="A98" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="B97" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="98" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A98" s="2" t="s">
+      <c r="B98" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" ht="15.6">
+      <c r="A99" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="B98" s="2">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="99" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A99" s="2" t="s">
+      <c r="B99" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2" ht="15.6">
+      <c r="A100" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="B99" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="100" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A100" s="2" t="s">
+      <c r="B100" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2" ht="15.6">
+      <c r="A101" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="B100" s="2">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="101" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A101" s="2" t="s">
+      <c r="B101" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2" ht="15.6">
+      <c r="A102" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="B101" s="2">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="102" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A102" s="2" t="s">
+      <c r="B102" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2" ht="15.6">
+      <c r="A103" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="B102" s="2">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="103" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A103" s="2" t="s">
+      <c r="B103" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2" ht="15.6">
+      <c r="A104" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="B103" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="104" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A104" s="2" t="s">
+      <c r="B104" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2" ht="15.6">
+      <c r="A105" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="B104" s="2">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="105" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A105" s="2" t="s">
+      <c r="B105" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2" ht="15.6">
+      <c r="A106" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="B105" s="2">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="106" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A106" s="2" t="s">
+      <c r="B106" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2" ht="15.6">
+      <c r="A107" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="B106" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="107" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A107" s="2" t="s">
+      <c r="B107" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2" ht="15.6">
+      <c r="A108" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="B107" s="2">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="108" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A108" s="2" t="s">
+      <c r="B108" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2" ht="15.6">
+      <c r="A109" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="B108" s="2">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="109" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A109" s="2" t="s">
+      <c r="B109" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2" ht="15.6">
+      <c r="A110" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="B109" s="2">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="110" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A110" s="2" t="s">
+      <c r="B110" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2" ht="15.6">
+      <c r="A111" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="B110" s="2">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="111" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A111" s="2" t="s">
+      <c r="B111" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2" ht="15.6">
+      <c r="A112" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="B111" s="2">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="112" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A112" s="2" t="s">
+      <c r="B112" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2" ht="15.6">
+      <c r="A113" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="B112" s="2">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="113" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A113" s="2" t="s">
+      <c r="B113" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2" ht="15.6">
+      <c r="A114" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="B113" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="114" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A114" s="2" t="s">
+      <c r="B114" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2" ht="15.6">
+      <c r="A115" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="B114" s="2">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="115" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A115" s="2" t="s">
+      <c r="B115" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2" ht="15.6">
+      <c r="A116" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="B115" s="2">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="116" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A116" s="2" t="s">
+      <c r="B116" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2" ht="15.6">
+      <c r="A117" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="B116" s="2">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="117" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A117" s="2" t="s">
+      <c r="B117" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2" ht="15.6">
+      <c r="A118" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="B117" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="118" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A118" s="2" t="s">
+      <c r="B118" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2" ht="15.6">
+      <c r="A119" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="B118" s="2">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="119" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A119" s="2" t="s">
+      <c r="B119" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="120" spans="1:2" ht="15.6">
+      <c r="A120" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="B119" s="2">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="120" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A120" s="2" t="s">
+      <c r="B120" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="121" spans="1:2" ht="15.6">
+      <c r="A121" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="B120" s="2">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="121" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A121" s="2" t="s">
+      <c r="B121" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="122" spans="1:2" ht="15.6">
+      <c r="A122" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="B121" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="122" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A122" s="2" t="s">
+      <c r="B122" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="123" spans="1:2" ht="15.6">
+      <c r="A123" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="B122" s="2">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="123" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A123" s="2" t="s">
+      <c r="B123" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="124" spans="1:2" ht="15.6">
+      <c r="A124" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="B123" s="2">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="124" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A124" s="2" t="s">
+      <c r="B124" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="125" spans="1:2" ht="15.6">
+      <c r="A125" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="B124" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="125" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A125" s="2" t="s">
+      <c r="B125" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="126" spans="1:2" ht="15.6">
+      <c r="A126" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="B125" s="2">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="126" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A126" s="2" t="s">
+      <c r="B126" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="127" spans="1:2" ht="15.6">
+      <c r="A127" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="B126" s="2">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="127" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A127" s="2" t="s">
+      <c r="B127" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="128" spans="1:2" ht="15.6">
+      <c r="A128" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="B127" s="2">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="128" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A128" s="2" t="s">
+      <c r="B128" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="129" spans="1:2" ht="15.6">
+      <c r="A129" s="2" t="s">
         <v>125</v>
       </c>
-      <c r="B128" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="129" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A129" s="2" t="s">
+      <c r="B129" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="130" spans="1:2" ht="15.6">
+      <c r="A130" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="B129" s="2">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="130" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A130" s="2" t="s">
+      <c r="B130" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="131" spans="1:2" ht="15.6">
+      <c r="A131" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="B130" s="2">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="131" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A131" s="2" t="s">
+      <c r="B131" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="132" spans="1:2" ht="15.6">
+      <c r="A132" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="B131" s="2">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="132" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A132" s="2" t="s">
+      <c r="B132" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="133" spans="1:2" ht="15.6">
+      <c r="A133" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="B132" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="133" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A133" s="2" t="s">
+      <c r="B133" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="134" spans="1:2" ht="15.6">
+      <c r="A134" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="B133" s="2">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="134" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A134" s="2" t="s">
+      <c r="B134" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="135" spans="1:2" ht="15.6">
+      <c r="A135" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="B134" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="135" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A135" s="2" t="s">
+      <c r="B135" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="136" spans="1:2" ht="15.6">
+      <c r="A136" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="B135" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="136" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A136" s="2" t="s">
+      <c r="B136" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="137" spans="1:2" ht="15.6">
+      <c r="A137" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="B136" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="137" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A137" s="2" t="s">
+      <c r="B137" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="138" spans="1:2" ht="15.6">
+      <c r="A138" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="B137" s="2">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="138" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A138" s="2" t="s">
+      <c r="B138" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="139" spans="1:2" ht="15.6">
+      <c r="A139" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="B138" s="2">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="139" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A139" s="2" t="s">
+      <c r="B139" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="140" spans="1:2" ht="15.6">
+      <c r="A140" s="2" t="s">
         <v>135</v>
       </c>
-      <c r="B139" s="2">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="140" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A140" s="2" t="s">
+      <c r="B140" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="141" spans="1:2" ht="15.6">
+      <c r="A141" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="B140" s="2">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="141" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A141" s="2" t="s">
+      <c r="B141" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="142" spans="1:2" ht="15.6">
+      <c r="A142" s="2" t="s">
         <v>137</v>
       </c>
-      <c r="B141" s="2">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="142" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A142" s="2" t="s">
+      <c r="B142" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="143" spans="1:2" ht="15.6">
+      <c r="A143" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="B142" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="143" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A143" s="2" t="s">
+      <c r="B143" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="144" spans="1:2" ht="15.6">
+      <c r="A144" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="B143" s="2">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="144" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A144" s="2" t="s">
+      <c r="B144" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="145" spans="1:2" ht="15.6">
+      <c r="A145" s="2" t="s">
         <v>140</v>
       </c>
-      <c r="B144" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="145" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A145" s="2" t="s">
+      <c r="B145" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="146" spans="1:2" ht="15.6">
+      <c r="A146" s="2" t="s">
         <v>141</v>
       </c>
-      <c r="B145" s="2">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="146" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A146" s="2" t="s">
+      <c r="B146" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="147" spans="1:2" ht="15.6">
+      <c r="A147" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="B146" s="2">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="147" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A147" s="2" t="s">
+      <c r="B147" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="148" spans="1:2" ht="15.6">
+      <c r="A148" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="B147" s="2">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="148" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A148" s="2" t="s">
+      <c r="B148" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="149" spans="1:2" ht="15.6">
+      <c r="A149" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="B148" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="149" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A149" s="2" t="s">
+      <c r="B149" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="150" spans="1:2" ht="15.6">
+      <c r="A150" s="2" t="s">
         <v>145</v>
       </c>
-      <c r="B149" s="2">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="150" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A150" s="2" t="s">
+      <c r="B150" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="151" spans="1:2" ht="15.6">
+      <c r="A151" s="2" t="s">
         <v>146</v>
       </c>
-      <c r="B150" s="2">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="151" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A151" s="2" t="s">
+      <c r="B151" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="152" spans="1:2" ht="15.6">
+      <c r="A152" s="2" t="s">
         <v>147</v>
       </c>
-      <c r="B151" s="2">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="152" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A152" s="2" t="s">
+      <c r="B152" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="153" spans="1:2" ht="15.6">
+      <c r="A153" s="2" t="s">
         <v>148</v>
       </c>
-      <c r="B152" s="2">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="153" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A153" s="2" t="s">
+      <c r="B153" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="154" spans="1:2" ht="15.6">
+      <c r="A154" s="2" t="s">
         <v>149</v>
       </c>
-      <c r="B153" s="2">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="154" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A154" s="2" t="s">
+      <c r="B154" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="155" spans="1:2" ht="15.6">
+      <c r="A155" s="2" t="s">
         <v>150</v>
       </c>
-      <c r="B154" s="2">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="155" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A155" s="2" t="s">
+      <c r="B155" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="156" spans="1:2" ht="15.6">
+      <c r="A156" s="2" t="s">
         <v>151</v>
       </c>
-      <c r="B155" s="2">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="156" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A156" s="2" t="s">
+      <c r="B156" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="157" spans="1:2" ht="15.6">
+      <c r="A157" s="2" t="s">
         <v>152</v>
       </c>
-      <c r="B156" s="2">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="157" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A157" s="2" t="s">
+      <c r="B157" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="158" spans="1:2" ht="15.6">
+      <c r="A158" s="2" t="s">
         <v>153</v>
       </c>
-      <c r="B157" s="2">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="158" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A158" s="2" t="s">
+      <c r="B158" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="159" spans="1:2" ht="15.6">
+      <c r="A159" s="2" t="s">
         <v>154</v>
       </c>
-      <c r="B158" s="2">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="159" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A159" s="2" t="s">
+      <c r="B159" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="160" spans="1:2" ht="15.6">
+      <c r="A160" s="2" t="s">
         <v>155</v>
       </c>
-      <c r="B159" s="2">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="160" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A160" s="2" t="s">
+      <c r="B160" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="161" spans="1:2" ht="15.6">
+      <c r="A161" s="2" t="s">
         <v>156</v>
       </c>
-      <c r="B160" s="2">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="161" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A161" s="2" t="s">
+      <c r="B161" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="162" spans="1:2" ht="15.6">
+      <c r="A162" s="2" t="s">
         <v>157</v>
       </c>
-      <c r="B161" s="2">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="162" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A162" s="2" t="s">
+      <c r="B162" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="163" spans="1:2" ht="15.6">
+      <c r="A163" s="2" t="s">
         <v>158</v>
       </c>
-      <c r="B162" s="2">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="163" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A163" s="2" t="s">
+      <c r="B163" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="164" spans="1:2" ht="15.6">
+      <c r="A164" s="2" t="s">
         <v>159</v>
       </c>
-      <c r="B163" s="2">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="164" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A164" s="2" t="s">
+      <c r="B164" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="165" spans="1:2" ht="15.6">
+      <c r="A165" s="2" t="s">
         <v>160</v>
       </c>
-      <c r="B164" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="165" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A165" s="2" t="s">
+      <c r="B165" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="166" spans="1:2" ht="15.6">
+      <c r="A166" s="2" t="s">
         <v>161</v>
       </c>
-      <c r="B165" s="2">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="166" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A166" s="2" t="s">
+      <c r="B166" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="167" spans="1:2" ht="15.6">
+      <c r="A167" s="2" t="s">
         <v>162</v>
       </c>
-      <c r="B166" s="2">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="167" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A167" s="2" t="s">
+      <c r="B167" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="168" spans="1:2" ht="15.6">
+      <c r="A168" s="2" t="s">
         <v>163</v>
       </c>
-      <c r="B167" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="168" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A168" s="2" t="s">
+      <c r="B168" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="169" spans="1:2" ht="15.6">
+      <c r="A169" s="2" t="s">
         <v>164</v>
       </c>
-      <c r="B168" s="2">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="169" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A169" s="2" t="s">
+      <c r="B169" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="170" spans="1:2" ht="15.6">
+      <c r="A170" s="2" t="s">
         <v>165</v>
       </c>
-      <c r="B169" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="170" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A170" s="2" t="s">
+      <c r="B170" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="171" spans="1:2" ht="15.6">
+      <c r="A171" s="2" t="s">
         <v>166</v>
       </c>
-      <c r="B170" s="2">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="171" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A171" s="2" t="s">
+      <c r="B171" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="172" spans="1:2" ht="15.6">
+      <c r="A172" s="2" t="s">
         <v>167</v>
       </c>
-      <c r="B171" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="172" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A172" s="2" t="s">
+      <c r="B172" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="173" spans="1:2" ht="15.6">
+      <c r="A173" s="2" t="s">
         <v>168</v>
       </c>
-      <c r="B172" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="173" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A173" s="2" t="s">
+      <c r="B173" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="174" spans="1:2" ht="15.6">
+      <c r="A174" s="2" t="s">
         <v>169</v>
       </c>
-      <c r="B173" s="2">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="174" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A174" s="2" t="s">
+      <c r="B174" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="175" spans="1:2" ht="15.6">
+      <c r="A175" s="2" t="s">
         <v>170</v>
       </c>
-      <c r="B174" s="2">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="175" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A175" s="2" t="s">
+      <c r="B175" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="176" spans="1:2" ht="15.6">
+      <c r="A176" s="2" t="s">
         <v>171</v>
       </c>
-      <c r="B175" s="2">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="176" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A176" s="2" t="s">
+      <c r="B176" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="177" spans="1:2" ht="15.6">
+      <c r="A177" s="2" t="s">
         <v>172</v>
       </c>
-      <c r="B176" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="177" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A177" s="2" t="s">
+      <c r="B177" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="178" spans="1:2" ht="15.6">
+      <c r="A178" s="2" t="s">
         <v>173</v>
       </c>
-      <c r="B177" s="2">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="178" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A178" s="2" t="s">
+      <c r="B178" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="179" spans="1:2" ht="15.6">
+      <c r="A179" s="2" t="s">
         <v>174</v>
       </c>
-      <c r="B178" s="2">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="179" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A179" s="2" t="s">
+      <c r="B179" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="180" spans="1:2" ht="15.6">
+      <c r="A180" s="2" t="s">
         <v>175</v>
       </c>
-      <c r="B179" s="2">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="180" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A180" s="2" t="s">
+      <c r="B180" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="181" spans="1:2" ht="15.6">
+      <c r="A181" s="2" t="s">
         <v>176</v>
       </c>
-      <c r="B180" s="2">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="181" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A181" s="2" t="s">
+      <c r="B181" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="182" spans="1:2" ht="15.6">
+      <c r="A182" s="2" t="s">
         <v>177</v>
       </c>
-      <c r="B181" s="2">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="182" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A182" s="2" t="s">
+      <c r="B182" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="183" spans="1:2" ht="15.6">
+      <c r="A183" s="2" t="s">
         <v>178</v>
       </c>
-      <c r="B182" s="2">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="183" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A183" s="2" t="s">
+      <c r="B183" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="184" spans="1:2" ht="15.6">
+      <c r="A184" s="2" t="s">
         <v>151</v>
       </c>
-      <c r="B183" s="2">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="184" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A184" s="2" t="s">
+      <c r="B184" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="185" spans="1:2" ht="15.6">
+      <c r="A185" s="2" t="s">
         <v>179</v>
       </c>
-      <c r="B184" s="2">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="185" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A185" s="2" t="s">
+      <c r="B185" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="186" spans="1:2" ht="15.6">
+      <c r="A186" s="2" t="s">
         <v>180</v>
       </c>
-      <c r="B185" s="2">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="186" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A186" s="2" t="s">
+      <c r="B186" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="187" spans="1:2" ht="15.6">
+      <c r="A187" s="2" t="s">
         <v>181</v>
       </c>
-      <c r="B186" s="2">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="187" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A187" s="2" t="s">
+      <c r="B187" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="188" spans="1:2" ht="15.6">
+      <c r="A188" s="2" t="s">
         <v>182</v>
       </c>
-      <c r="B187" s="2">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="188" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A188" s="2" t="s">
+      <c r="B188" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="189" spans="1:2" ht="15.6">
+      <c r="A189" s="2" t="s">
         <v>183</v>
       </c>
-      <c r="B188" s="2">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="189" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A189" s="2" t="s">
+      <c r="B189" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="190" spans="1:2" ht="15.6">
+      <c r="A190" s="2" t="s">
         <v>184</v>
       </c>
-      <c r="B189" s="2">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="190" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A190" s="2" t="s">
+      <c r="B190" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="191" spans="1:2" ht="15.6">
+      <c r="A191" s="2" t="s">
         <v>185</v>
       </c>
-      <c r="B190" s="2">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="191" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A191" s="2" t="s">
+      <c r="B191" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="192" spans="1:2" ht="15.6">
+      <c r="A192" s="2" t="s">
         <v>186</v>
       </c>
-      <c r="B191" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="192" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A192" s="2" t="s">
+      <c r="B192" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="193" spans="1:2" ht="15.6">
+      <c r="A193" s="2" t="s">
         <v>187</v>
       </c>
-      <c r="B192" s="2">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="193" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A193" s="2" t="s">
+      <c r="B193" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="194" spans="1:2" ht="15.6">
+      <c r="A194" s="2" t="s">
         <v>188</v>
       </c>
-      <c r="B193" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="194" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A194" s="2" t="s">
+      <c r="B194" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="195" spans="1:2" ht="15.6">
+      <c r="A195" s="2" t="s">
         <v>189</v>
       </c>
-      <c r="B194" s="2">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="195" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A195" s="2" t="s">
+      <c r="B195" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="196" spans="1:2" ht="15.6">
+      <c r="A196" s="2" t="s">
         <v>190</v>
       </c>
-      <c r="B195" s="2">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="196" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A196" s="2" t="s">
+      <c r="B196" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="197" spans="1:2" ht="15.6">
+      <c r="A197" s="2" t="s">
         <v>191</v>
       </c>
-      <c r="B196" s="2">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="197" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A197" s="2" t="s">
+      <c r="B197" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="198" spans="1:2" ht="15.6">
+      <c r="A198" s="2" t="s">
         <v>192</v>
       </c>
-      <c r="B197" s="2">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="198" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A198" s="2" t="s">
+      <c r="B198" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="199" spans="1:2" ht="15.6">
+      <c r="A199" s="2" t="s">
         <v>193</v>
       </c>
-      <c r="B198" s="2">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="199" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A199" s="2" t="s">
+      <c r="B199" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="200" spans="1:2" ht="15.6">
+      <c r="A200" s="2" t="s">
         <v>194</v>
       </c>
-      <c r="B199" s="2">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="200" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A200" s="2" t="s">
+      <c r="B200" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="201" spans="1:2" ht="15.6">
+      <c r="A201" s="2" t="s">
         <v>195</v>
       </c>
-      <c r="B200" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="201" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A201" s="2" t="s">
+      <c r="B201" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="202" spans="1:2" ht="15.6">
+      <c r="A202" s="2" t="s">
         <v>196</v>
       </c>
-      <c r="B201" s="2">
+      <c r="B202" s="2">
         <v>5</v>
       </c>
     </row>
@@ -2629,6 +2641,17 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="5d0836d6-44f8-4bdc-b7ec-4ce50b8bd073">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="91634d5d-6728-474a-a339-016187646ac3" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101000F20F0DEBE5DAB4CB09FAD3571EFEFD3" ma:contentTypeVersion="18" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="156855e6115abbda6c28c215b288d477">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="5d0836d6-44f8-4bdc-b7ec-4ce50b8bd073" xmlns:ns3="31cb4620-1988-46c0-a0bc-9ed88a7d10ff" xmlns:ns4="91634d5d-6728-474a-a339-016187646ac3" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="bc170a0dd204544c80e7fa01fa1049f2" ns2:_="" ns3:_="" ns4:_="">
     <xsd:import namespace="5d0836d6-44f8-4bdc-b7ec-4ce50b8bd073"/>
@@ -2888,7 +2911,7 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
@@ -2897,30 +2920,7 @@
 </FormTemplates>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="5d0836d6-44f8-4bdc-b7ec-4ce50b8bd073">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="91634d5d-6728-474a-a339-016187646ac3" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{31156C33-B539-469A-96AF-711721D39708}"/>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5A3D0EA5-2DE3-4D39-BA88-5620E83004F3}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0083D7B5-8F88-4406-AD0B-85C65440FC97}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
@@ -2933,6 +2933,36 @@
     <ds:schemaRef ds:uri="64eba3a1-2f86-4496-bc8f-c1dc80dcd48e"/>
     <ds:schemaRef ds:uri="d22ae4aa-889b-4993-8ed7-9d6aa2efb4aa"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="5d0836d6-44f8-4bdc-b7ec-4ce50b8bd073"/>
+    <ds:schemaRef ds:uri="91634d5d-6728-474a-a339-016187646ac3"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{31156C33-B539-469A-96AF-711721D39708}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="5d0836d6-44f8-4bdc-b7ec-4ce50b8bd073"/>
+    <ds:schemaRef ds:uri="31cb4620-1988-46c0-a0bc-9ed88a7d10ff"/>
+    <ds:schemaRef ds:uri="91634d5d-6728-474a-a339-016187646ac3"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5A3D0EA5-2DE3-4D39-BA88-5620E83004F3}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>